--- a/Dokumente/Zeiterfassung2014.xlsx
+++ b/Dokumente/Zeiterfassung2014.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eigene Dateien\Dokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\pcs\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -591,6 +591,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -624,12 +630,6 @@
     <xf numFmtId="2" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -913,7 +913,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,15 +924,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -982,8 +982,8 @@
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39">
+      <c r="B6" s="28"/>
+      <c r="C6" s="28">
         <f>IF(B6&gt;Berechnungen!A17,Berechnungen!B17,IF(B6&gt;Berechnungen!A16,Berechnungen!B16,IF(B6&gt;Berechnungen!A15,Berechnungen!B15,IF(B6&gt;Berechnungen!A14,Berechnungen!B14,IF(B6&gt;Berechnungen!A13,Berechnungen!B13,0)))))</f>
         <v>0</v>
       </c>
@@ -996,8 +996,8 @@
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39">
+      <c r="B7" s="28"/>
+      <c r="C7" s="28">
         <f>IF(B7&gt;Berechnungen!A17,Berechnungen!B17,IF(B7&gt;Berechnungen!A16,Berechnungen!B16,IF(B7&gt;Berechnungen!A15,Berechnungen!B15,IF(B7&gt;Berechnungen!A14,Berechnungen!B14,IF(B7&gt;Berechnungen!A13,Berechnungen!B13,0)))))</f>
         <v>0</v>
       </c>
@@ -1010,8 +1010,8 @@
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28">
         <f>IF(B8&gt;Berechnungen!A17,Berechnungen!B17,IF(B8&gt;Berechnungen!A16,Berechnungen!B16,IF(B8&gt;Berechnungen!A15,Berechnungen!B15,IF(B8&gt;Berechnungen!A14,Berechnungen!B14,IF(B8&gt;Berechnungen!A13,Berechnungen!B13,0)))))</f>
         <v>0</v>
       </c>
@@ -1024,8 +1024,8 @@
       <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39">
+      <c r="B9" s="28"/>
+      <c r="C9" s="28">
         <f>IF(B9&gt;Berechnungen!A17,Berechnungen!B17,IF(B9&gt;Berechnungen!A16,Berechnungen!B16,IF(B9&gt;Berechnungen!A15,Berechnungen!B15,IF(B9&gt;Berechnungen!A14,Berechnungen!B14,IF(B9&gt;Berechnungen!A13,Berechnungen!B13,0)))))</f>
         <v>0</v>
       </c>
@@ -1038,8 +1038,8 @@
       <c r="A10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39">
+      <c r="B10" s="28"/>
+      <c r="C10" s="28">
         <f>IF(B10&gt;Berechnungen!A17,Berechnungen!B17,IF(B10&gt;Berechnungen!A16,Berechnungen!B16,IF(B10&gt;Berechnungen!A15,Berechnungen!B15,IF(B10&gt;Berechnungen!A14,Berechnungen!B14,IF(B10&gt;Berechnungen!A13,Berechnungen!B13,0)))))</f>
         <v>0</v>
       </c>
@@ -1052,8 +1052,8 @@
       <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39">
+      <c r="B11" s="28"/>
+      <c r="C11" s="28">
         <f>IF(B11&gt;Berechnungen!A17,Berechnungen!B17,IF(B11&gt;Berechnungen!A16,Berechnungen!B16,IF(B11&gt;Berechnungen!A15,Berechnungen!B15,IF(B11&gt;Berechnungen!A14,Berechnungen!B14,IF(B11&gt;Berechnungen!A13,Berechnungen!B13,0)))))</f>
         <v>0</v>
       </c>
@@ -1066,8 +1066,8 @@
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39">
+      <c r="B12" s="28"/>
+      <c r="C12" s="28">
         <f>IF(B12&gt;Berechnungen!A17,Berechnungen!B17,IF(B12&gt;Berechnungen!A16,Berechnungen!B16,IF(B12&gt;Berechnungen!A15,Berechnungen!B15,IF(B12&gt;Berechnungen!A14,Berechnungen!B14,IF(B12&gt;Berechnungen!A13,Berechnungen!B13,0)))))</f>
         <v>0</v>
       </c>
@@ -1080,10 +1080,10 @@
       <c r="A13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="28">
         <v>3235.12</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="28">
         <f>IF(B13&gt;Berechnungen!A17,Berechnungen!B17,IF(B13&gt;Berechnungen!A16,Berechnungen!B16,IF(B13&gt;Berechnungen!A15,Berechnungen!B15,IF(B13&gt;Berechnungen!A14,Berechnungen!B14,IF(B13&gt;Berechnungen!A13,Berechnungen!B13,0)))))</f>
         <v>190</v>
       </c>
@@ -1096,10 +1096,10 @@
       <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="39">
+      <c r="B14" s="28">
         <v>2932.86</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="28">
         <f>IF(B14&gt;Berechnungen!A17,Berechnungen!B17,IF(B14&gt;Berechnungen!A16,Berechnungen!B16,IF(B14&gt;Berechnungen!A15,Berechnungen!B15,IF(B14&gt;Berechnungen!A14,Berechnungen!B14,IF(B14&gt;Berechnungen!A13,Berechnungen!B13,0)))))</f>
         <v>140</v>
       </c>
@@ -1112,10 +1112,10 @@
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="39">
+      <c r="B15" s="28">
         <v>1846.21</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="28">
         <f>IF(B15&gt;Berechnungen!A17,Berechnungen!B17,IF(B15&gt;Berechnungen!A16,Berechnungen!B16,IF(B15&gt;Berechnungen!A15,Berechnungen!B15,IF(B15&gt;Berechnungen!A14,Berechnungen!B14,IF(B15&gt;Berechnungen!A13,Berechnungen!B13,0)))))</f>
         <v>80</v>
       </c>
@@ -1128,10 +1128,10 @@
       <c r="A16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="39">
+      <c r="B16" s="28">
         <v>1669.04</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C16" s="28">
         <f>IF(B16&gt;Berechnungen!A17,Berechnungen!B17,IF(B16&gt;Berechnungen!A16,Berechnungen!B16,IF(B16&gt;Berechnungen!A15,Berechnungen!B15,IF(B16&gt;Berechnungen!A14,Berechnungen!B14,IF(B16&gt;Berechnungen!A13,Berechnungen!B13,0)))))</f>
         <v>80</v>
       </c>
@@ -1144,10 +1144,10 @@
       <c r="A17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="39">
+      <c r="B17" s="28">
         <v>1244.8</v>
       </c>
-      <c r="C17" s="39">
+      <c r="C17" s="28">
         <f>IF(B17&gt;Berechnungen!A17,Berechnungen!B17,IF(B17&gt;Berechnungen!A16,Berechnungen!B16,IF(B17&gt;Berechnungen!A15,Berechnungen!B15,IF(B17&gt;Berechnungen!A14,Berechnungen!B14,IF(B17&gt;Berechnungen!A13,Berechnungen!B13,0)))))</f>
         <v>0</v>
       </c>
@@ -1201,15 +1201,15 @@
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39">
+      <c r="B21" s="28"/>
+      <c r="C21" s="28">
         <f t="shared" ref="C21:C32" si="0">C6</f>
         <v>0</v>
       </c>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="41">
-        <f>D21-E21</f>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="30">
+        <f t="shared" ref="F21:F32" si="1">D21-E21</f>
         <v>0</v>
       </c>
       <c r="G21" s="1"/>
@@ -1218,15 +1218,15 @@
       <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="41">
-        <f>D22-E22</f>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="30">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G22" s="1"/>
@@ -1235,15 +1235,15 @@
       <c r="A23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="41">
-        <f>D23-E23</f>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="30">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G23" s="1"/>
@@ -1252,15 +1252,15 @@
       <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="41">
-        <f>D24-E24</f>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="30">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G24" s="1"/>
@@ -1269,15 +1269,15 @@
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="41">
-        <f>D25-E25</f>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="30">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G25" s="1"/>
@@ -1286,17 +1286,21 @@
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="39">
+      <c r="B26" s="28">
         <v>1650</v>
       </c>
-      <c r="C26" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="41">
-        <f>D26-E26</f>
+      <c r="C26" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="28">
+        <v>1169.6099999999999</v>
+      </c>
+      <c r="E26" s="28">
+        <v>1169.6099999999999</v>
+      </c>
+      <c r="F26" s="30">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G26" s="1"/>
@@ -1305,17 +1309,17 @@
       <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="39">
+      <c r="B27" s="28">
         <v>1650</v>
       </c>
-      <c r="C27" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="41">
-        <f>D27-E27</f>
+      <c r="C27" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="30">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G27" s="1"/>
@@ -1324,17 +1328,21 @@
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="39">
+      <c r="B28" s="28">
         <v>1650</v>
       </c>
-      <c r="C28" s="39">
+      <c r="C28" s="28">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="41">
-        <f>D28-E28</f>
+      <c r="D28" s="28">
+        <v>1270.42</v>
+      </c>
+      <c r="E28" s="28">
+        <v>1270.42</v>
+      </c>
+      <c r="F28" s="30">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G28" s="1"/>
@@ -1343,17 +1351,21 @@
       <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="39">
+      <c r="B29" s="28">
         <v>1650</v>
       </c>
-      <c r="C29" s="39">
+      <c r="C29" s="28">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="41">
-        <f>D29-E29</f>
+      <c r="D29" s="28">
+        <v>1243.2</v>
+      </c>
+      <c r="E29" s="28">
+        <v>1243.2</v>
+      </c>
+      <c r="F29" s="30">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G29" s="1"/>
@@ -1362,17 +1374,21 @@
       <c r="A30" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="39">
+      <c r="B30" s="28">
         <v>1650</v>
       </c>
-      <c r="C30" s="39">
+      <c r="C30" s="28">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="41">
-        <f>D30-E30</f>
+      <c r="D30" s="28">
+        <v>1211.6199999999999</v>
+      </c>
+      <c r="E30" s="28">
+        <v>1211.6199999999999</v>
+      </c>
+      <c r="F30" s="30">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G30" s="1"/>
@@ -1381,17 +1397,21 @@
       <c r="A31" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="39">
+      <c r="B31" s="28">
         <v>1650</v>
       </c>
-      <c r="C31" s="39">
+      <c r="C31" s="28">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="41">
-        <f>D31-E31</f>
+      <c r="D31" s="28">
+        <v>1211.6199999999999</v>
+      </c>
+      <c r="E31" s="28">
+        <v>1211.6199999999999</v>
+      </c>
+      <c r="F31" s="30">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G31" s="1"/>
@@ -1400,21 +1420,21 @@
       <c r="A32" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="40">
+      <c r="B32" s="29">
         <v>1650</v>
       </c>
-      <c r="C32" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D32" s="40">
+      <c r="C32" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="29">
         <v>1169.6099999999999</v>
       </c>
-      <c r="E32" s="41">
+      <c r="E32" s="30">
         <v>1169.6099999999999</v>
       </c>
-      <c r="F32" s="41">
-        <f>D32-E32</f>
+      <c r="F32" s="30">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G32" s="1"/>
@@ -1423,23 +1443,23 @@
       <c r="A33" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="42">
+      <c r="B33" s="31">
         <f>SUM(B21:B32)</f>
         <v>11550</v>
       </c>
-      <c r="C33" s="42">
+      <c r="C33" s="31">
         <f>SUM(C21:C32)</f>
         <v>490</v>
       </c>
-      <c r="D33" s="42">
+      <c r="D33" s="31">
         <f>SUM(D21:D32)</f>
-        <v>1169.6099999999999</v>
-      </c>
-      <c r="E33" s="42">
+        <v>7276.079999999999</v>
+      </c>
+      <c r="E33" s="31">
         <f>SUM(E21:E32)</f>
-        <v>1169.6099999999999</v>
-      </c>
-      <c r="F33" s="43">
+        <v>7276.079999999999</v>
+      </c>
+      <c r="F33" s="32">
         <f>SUM(F21:F32)</f>
         <v>0</v>
       </c>
@@ -1447,11 +1467,11 @@
     </row>
     <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="44">
+      <c r="B36" s="37"/>
+      <c r="C36" s="33">
         <f>Januar!E26+Februar!E26+März!E26+April!E26+Mai!E26+Juni!E26+Juli!E26+August!E26+September!E26+Oktober!E26+November!E26+Dezember!E26</f>
         <v>-2400</v>
       </c>
@@ -1485,17 +1505,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -1863,27 +1883,27 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="36">
+      <c r="B21" s="41"/>
+      <c r="C21" s="42">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="36"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="38">
+      <c r="B22" s="43"/>
+      <c r="C22" s="44">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="38"/>
+      <c r="D22" s="44"/>
       <c r="E22" s="4"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1955,17 +1975,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -2333,27 +2353,27 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="36">
+      <c r="B21" s="41"/>
+      <c r="C21" s="42">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="36"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="38">
+      <c r="B22" s="43"/>
+      <c r="C22" s="44">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="38"/>
+      <c r="D22" s="44"/>
       <c r="E22" s="4"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2425,17 +2445,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -2803,27 +2823,27 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="36">
+      <c r="B21" s="41"/>
+      <c r="C21" s="42">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="36"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="38">
+      <c r="B22" s="43"/>
+      <c r="C22" s="44">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="38"/>
+      <c r="D22" s="44"/>
       <c r="E22" s="4"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2895,17 +2915,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -3273,27 +3293,27 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="36">
+      <c r="B21" s="41"/>
+      <c r="C21" s="42">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="36"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="38">
+      <c r="B22" s="43"/>
+      <c r="C22" s="44">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="38"/>
+      <c r="D22" s="44"/>
       <c r="E22" s="4"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -3435,46 +3455,46 @@
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="39">
+      <c r="A13" s="28">
         <v>1500</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="28">
         <v>80</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="39">
+      <c r="A14" s="28">
         <v>2000</v>
       </c>
-      <c r="B14" s="39">
+      <c r="B14" s="28">
         <v>110</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="39">
+      <c r="A15" s="28">
         <v>2500</v>
       </c>
-      <c r="B15" s="39">
+      <c r="B15" s="28">
         <v>140</v>
       </c>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="39">
+      <c r="A16" s="28">
         <v>3000</v>
       </c>
-      <c r="B16" s="39">
+      <c r="B16" s="28">
         <v>190</v>
       </c>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="39">
+      <c r="A17" s="28">
         <v>3500</v>
       </c>
-      <c r="B17" s="39">
+      <c r="B17" s="28">
         <v>250</v>
       </c>
       <c r="C17" s="1"/>
@@ -3503,17 +3523,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -3881,27 +3901,27 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="36">
+      <c r="B21" s="41"/>
+      <c r="C21" s="42">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="36"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="38">
+      <c r="B22" s="43"/>
+      <c r="C22" s="44">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="38"/>
+      <c r="D22" s="44"/>
       <c r="E22" s="4"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -3974,17 +3994,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -4352,27 +4372,27 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="36">
+      <c r="B21" s="41"/>
+      <c r="C21" s="42">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="36"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="38">
+      <c r="B22" s="43"/>
+      <c r="C22" s="44">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="38"/>
+      <c r="D22" s="44"/>
       <c r="E22" s="4"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -4444,17 +4464,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -4822,27 +4842,27 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="36">
+      <c r="B21" s="41"/>
+      <c r="C21" s="42">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="36"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="38">
+      <c r="B22" s="43"/>
+      <c r="C22" s="44">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="38"/>
+      <c r="D22" s="44"/>
       <c r="E22" s="4"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -4914,17 +4934,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -5292,27 +5312,27 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="36">
+      <c r="B21" s="41"/>
+      <c r="C21" s="42">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="36"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="38">
+      <c r="B22" s="43"/>
+      <c r="C22" s="44">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="38"/>
+      <c r="D22" s="44"/>
       <c r="E22" s="4"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -5384,17 +5404,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -5762,27 +5782,27 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="36">
+      <c r="B21" s="41"/>
+      <c r="C21" s="42">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="36"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="38">
+      <c r="B22" s="43"/>
+      <c r="C22" s="44">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="38"/>
+      <c r="D22" s="44"/>
       <c r="E22" s="4"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -5854,17 +5874,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -6232,27 +6252,27 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="36">
+      <c r="B21" s="41"/>
+      <c r="C21" s="42">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="36"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="38">
+      <c r="B22" s="43"/>
+      <c r="C22" s="44">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="38"/>
+      <c r="D22" s="44"/>
       <c r="E22" s="4"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -6324,17 +6344,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -6702,27 +6722,27 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="36">
+      <c r="B21" s="41"/>
+      <c r="C21" s="42">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="36"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="38">
+      <c r="B22" s="43"/>
+      <c r="C22" s="44">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="38"/>
+      <c r="D22" s="44"/>
       <c r="E22" s="4"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -6794,17 +6814,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -7172,27 +7192,27 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="36">
+      <c r="B21" s="41"/>
+      <c r="C21" s="42">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="36"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="38">
+      <c r="B22" s="43"/>
+      <c r="C22" s="44">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="38"/>
+      <c r="D22" s="44"/>
       <c r="E22" s="4"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">

--- a/Dokumente/Zeiterfassung2014.xlsx
+++ b/Dokumente/Zeiterfassung2014.xlsx
@@ -913,7 +913,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,10 +1066,12 @@
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="28"/>
+      <c r="B12" s="28">
+        <v>1919.24</v>
+      </c>
       <c r="C12" s="28">
         <f>IF(B12&gt;Berechnungen!A17,Berechnungen!B17,IF(B12&gt;Berechnungen!A16,Berechnungen!B16,IF(B12&gt;Berechnungen!A15,Berechnungen!B15,IF(B12&gt;Berechnungen!A14,Berechnungen!B14,IF(B12&gt;Berechnungen!A13,Berechnungen!B13,0)))))</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1314,10 +1316,14 @@
       </c>
       <c r="C27" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
+        <v>80</v>
+      </c>
+      <c r="D27" s="28">
+        <v>1211.6199999999999</v>
+      </c>
+      <c r="E27" s="28">
+        <v>1211.6199999999999</v>
+      </c>
       <c r="F27" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1449,15 +1455,15 @@
       </c>
       <c r="C33" s="31">
         <f>SUM(C21:C32)</f>
-        <v>490</v>
+        <v>570</v>
       </c>
       <c r="D33" s="31">
         <f>SUM(D21:D32)</f>
-        <v>7276.079999999999</v>
+        <v>8487.6999999999989</v>
       </c>
       <c r="E33" s="31">
         <f>SUM(E21:E32)</f>
-        <v>7276.079999999999</v>
+        <v>8487.6999999999989</v>
       </c>
       <c r="F33" s="32">
         <f>SUM(F21:F32)</f>
